--- a/etc/databases/stops.xlsx
+++ b/etc/databases/stops.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1480" yWindow="880" windowWidth="25360" windowHeight="15700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="61A source" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>stop_id</t>
   </si>
@@ -170,6 +170,123 @@
   </si>
   <si>
     <t>Sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morewood Gardens </t>
+  </si>
+  <si>
+    <t>South Dithridge</t>
+  </si>
+  <si>
+    <t>North Dithridge</t>
+  </si>
+  <si>
+    <t>Morewood</t>
+  </si>
+  <si>
+    <t>Fifth Ave at Wood St</t>
+  </si>
+  <si>
+    <t>Forbes Ave at East End</t>
+  </si>
+  <si>
+    <t>Rowland Connector &amp; Pennwood</t>
+  </si>
+  <si>
+    <t>Woodstock Ave &amp; Swissvale st. steps</t>
+  </si>
+  <si>
+    <t>Forbes Ave btw. Dennison &amp; Shady</t>
+  </si>
+  <si>
+    <t>Sixth Ave &amp; Fifth Ave FS</t>
+  </si>
+  <si>
+    <t>Fifth Ave at Ross St</t>
+  </si>
+  <si>
+    <t>Forbes Ave at Atwood St</t>
+  </si>
+  <si>
+    <t>Forbes Ave opposite Craig St</t>
+  </si>
+  <si>
+    <t>Forbes Ave at Murray St</t>
+  </si>
+  <si>
+    <t>Forbes Ave at Shady St</t>
+  </si>
+  <si>
+    <t>Swissvale Ave &amp; Coal St</t>
+  </si>
+  <si>
+    <t>Noble St &amp; Washington St</t>
+  </si>
+  <si>
+    <t>Library St &amp; Braddock Ave FS</t>
+  </si>
+  <si>
+    <t>Coal St &amp; Walnut St FS</t>
+  </si>
+  <si>
+    <t>Kelly Ave &amp; Pitt St</t>
+  </si>
+  <si>
+    <t>Forbes Ave at Braddock St FS</t>
+  </si>
+  <si>
+    <t>Fifth Ave opposite Atwood St</t>
+  </si>
+  <si>
+    <t>South Craig</t>
+  </si>
+  <si>
+    <t>Wiinthrop</t>
+  </si>
+  <si>
+    <t>Wilkins</t>
+  </si>
+  <si>
+    <t>South Aiken</t>
+  </si>
+  <si>
+    <t>Bellefonte</t>
+  </si>
+  <si>
+    <t>South Dithridge at Wiinthrop St</t>
+  </si>
+  <si>
+    <t>North Dithridge at Fifth Ave</t>
+  </si>
+  <si>
+    <t>Fifth Ave at Bellefonte St</t>
+  </si>
+  <si>
+    <t>Fifth Ave at South Aiken Ave</t>
+  </si>
+  <si>
+    <t>Fifth Ave at Wilkins Ave</t>
+  </si>
+  <si>
+    <t>Forbes Ave &amp; South Craig St</t>
+  </si>
+  <si>
+    <t>stopid</t>
+  </si>
+  <si>
+    <t>stopname</t>
+  </si>
+  <si>
+    <t>stopstreet1</t>
+  </si>
+  <si>
+    <t>stopstreet2</t>
+  </si>
+  <si>
+    <t>stopgpslat</t>
+  </si>
+  <si>
+    <t>stopgpslong</t>
   </si>
 </sst>
 </file>
@@ -229,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,22 +354,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,32 +1209,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:F19"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -1107,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1127,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1147,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1167,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1187,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1207,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1227,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1247,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1267,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1287,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -1307,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -1327,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
@@ -1347,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -1367,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
@@ -1387,7 +1526,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -1402,12 +1541,12 @@
         <v>-79.897542999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1422,12 +1561,12 @@
         <v>-79.918931000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -1442,12 +1581,12 @@
         <v>-79.958506999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>49</v>
@@ -1462,32 +1601,175 @@
         <v>-79.994615999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="16">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
+    <row r="20" spans="1:7" ht="16">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>40.445417999999997</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-79.942713999999995</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4">
+        <v>40.444467000000003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-79.948642000000007</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="4">
+        <v>40.445686000000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-79.950389999999999</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>40.446814000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-79.950548999999995</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="16">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="4">
+        <v>40.447839000000002</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-79.937092000000007</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40.448188000000002</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-79.934377999999995</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="4">
+        <v>40.448711000000003</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-79.932725000000005</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="16">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="16">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="16">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/etc/databases/stops.xlsx
+++ b/etc/databases/stops.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="880" windowWidth="25360" windowHeight="15700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="61A source" sheetId="1" r:id="rId1"/>
-    <sheet name="61A" sheetId="2" r:id="rId2"/>
+    <sheet name="stops" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,28 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
-  <si>
-    <t>stop_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>street1</t>
-  </si>
-  <si>
-    <t>street2</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>Downtown - 5TH AVE &amp; WOOD ST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Fifth</t>
   </si>
@@ -49,138 +27,69 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Uptown - 5TH AVE &amp; ROSS ST</t>
-  </si>
-  <si>
     <t>Ross</t>
   </si>
   <si>
-    <t>Oakland - FORBES AVE &amp; ATWOOD ST</t>
-  </si>
-  <si>
     <t>Forbes</t>
   </si>
   <si>
     <t>Atwood</t>
   </si>
   <si>
-    <t>Oakland - FORBES AVE OPP CRAIG ST</t>
-  </si>
-  <si>
     <t>Craig</t>
   </si>
   <si>
-    <t>Squirrel Hill - FORBES AVE &amp; MURRAY AVE</t>
-  </si>
-  <si>
     <t>Murray</t>
   </si>
   <si>
-    <t>Squirrel Hill - FORBES AVE &amp; SHADY AVE</t>
-  </si>
-  <si>
     <t>Shady</t>
   </si>
   <si>
-    <t>Wilkinsburg - FORBES AVE &amp; EAST END AVE</t>
-  </si>
-  <si>
     <t>East End</t>
   </si>
   <si>
-    <t>Wilkinsburg - ROWLAND CONNECTOR &amp; PENNWOOD</t>
-  </si>
-  <si>
     <t>Rowland</t>
   </si>
   <si>
     <t>Pennwood</t>
   </si>
   <si>
-    <t>Wilkinsburg - SWISSVALE AVE &amp; COAL</t>
-  </si>
-  <si>
     <t>Swissvale</t>
   </si>
   <si>
     <t>Coal</t>
   </si>
   <si>
-    <t>Swissvale - NOBLE ST &amp; WASHINGTON ST</t>
-  </si>
-  <si>
     <t>Noble</t>
   </si>
   <si>
     <t>Washington</t>
   </si>
   <si>
-    <t>Swissvale - WOODSTOCK AVE &amp; SWISSVALE STATION STEPS</t>
-  </si>
-  <si>
     <t>Woodstock</t>
   </si>
   <si>
-    <t>Braddock - LIBRARY ST &amp; BRADDOCK AVE FS</t>
-  </si>
-  <si>
     <t>Library</t>
   </si>
   <si>
     <t>Braddock</t>
   </si>
   <si>
-    <t>Swissvale - WOODSTOCK AVE OPP SWISSVALE STATION STEPS</t>
-  </si>
-  <si>
-    <t>Swissvale - NOBLE ST OPP WASHINGTON ST</t>
-  </si>
-  <si>
-    <t>Wilkinsburg - COAL ST &amp; WALNUT FS</t>
-  </si>
-  <si>
     <t>Walnut</t>
   </si>
   <si>
-    <t>Wilkinsburg - KELLY AVE &amp; PITT ST</t>
-  </si>
-  <si>
     <t>Kelly</t>
   </si>
   <si>
     <t>Pitt</t>
   </si>
   <si>
-    <t>Wilkinsburg - FORBES AVE &amp; BRADDOCK FS</t>
-  </si>
-  <si>
-    <t>Squirrel Hill - FORBES AVE BTW DENNISTON &amp; SHADY</t>
-  </si>
-  <si>
-    <t>Squirrel Hill - FORBES AVE &amp; MURRAY AVE FS</t>
-  </si>
-  <si>
-    <t>Oakland - FORBES AVE &amp; CRAIG ST</t>
-  </si>
-  <si>
-    <t>Oakland - 5TH AVE OPP ATWOOD ST</t>
-  </si>
-  <si>
-    <t>Uptown - 6TH AVE &amp; 5TH AVE FS</t>
-  </si>
-  <si>
     <t>Sixth</t>
   </si>
   <si>
     <t xml:space="preserve">Morewood Gardens </t>
   </si>
   <si>
-    <t>South Dithridge</t>
-  </si>
-  <si>
-    <t>North Dithridge</t>
-  </si>
-  <si>
     <t>Morewood</t>
   </si>
   <si>
@@ -208,9 +117,6 @@
     <t>Forbes Ave at Atwood St</t>
   </si>
   <si>
-    <t>Forbes Ave opposite Craig St</t>
-  </si>
-  <si>
     <t>Forbes Ave at Murray St</t>
   </si>
   <si>
@@ -235,21 +141,12 @@
     <t>Forbes Ave at Braddock St FS</t>
   </si>
   <si>
-    <t>Fifth Ave opposite Atwood St</t>
-  </si>
-  <si>
-    <t>South Craig</t>
-  </si>
-  <si>
     <t>Wiinthrop</t>
   </si>
   <si>
     <t>Wilkins</t>
   </si>
   <si>
-    <t>South Aiken</t>
-  </si>
-  <si>
     <t>Bellefonte</t>
   </si>
   <si>
@@ -268,9 +165,6 @@
     <t>Fifth Ave at Wilkins Ave</t>
   </si>
   <si>
-    <t>Forbes Ave &amp; South Craig St</t>
-  </si>
-  <si>
     <t>stopid</t>
   </si>
   <si>
@@ -287,6 +181,21 @@
   </si>
   <si>
     <t>stopgpslong</t>
+  </si>
+  <si>
+    <t>S. Aiken</t>
+  </si>
+  <si>
+    <t>S. Dithridge</t>
+  </si>
+  <si>
+    <t>N. Dithridge</t>
+  </si>
+  <si>
+    <t>Forbes Ave at Craig St</t>
+  </si>
+  <si>
+    <t>Fifth Ave at Atwood St</t>
   </si>
 </sst>
 </file>
@@ -717,528 +626,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="67.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>40.440488000000002</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-79.999637000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>40.438997999999998</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-79.995372000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>40.440942</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-79.957751000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>40.444408000000003</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-79.948733000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
-        <v>40.438119999999998</v>
-      </c>
-      <c r="F6" s="4">
-        <v>-79.923601000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>40.438031000000002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-79.919454999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4">
-        <v>40.439627000000002</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-79.89658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2">
-        <v>40.440517</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-79.886945999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4">
-        <v>40.434773999999997</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-79.882872000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4">
-        <v>40.421193000000002</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-79.886116999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2">
-        <v>40.415709999999997</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-79.878685000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2">
-        <v>40.401299000000002</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-79.865617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="16">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="16">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2">
-        <v>40.436368999999999</v>
-      </c>
-      <c r="F18" s="4">
-        <v>-79.882418999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2">
-        <v>40.440454000000003</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-79.889701000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="1">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2">
-        <v>40.439739000000003</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-79.897542999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16">
-      <c r="A21" s="1">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2">
-        <v>40.438057000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>-79.918931000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="16">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="16">
-      <c r="A24" s="1">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2">
-        <v>40.441819000000002</v>
-      </c>
-      <c r="F24" s="4">
-        <v>-79.958506999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="1">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2">
-        <v>40.439259999999997</v>
-      </c>
-      <c r="F25" s="4">
-        <v>-79.994615999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>40.440846000000001</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-80.000808000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -1246,13 +661,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>40.440488000000002</v>
@@ -1266,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>40.438997999999998</v>
@@ -1286,13 +701,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>40.440942</v>
@@ -1306,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>40.444408000000003</v>
@@ -1326,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>40.438119999999998</v>
@@ -1346,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4">
         <v>40.438031000000002</v>
@@ -1366,13 +781,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>40.439627000000002</v>
@@ -1386,13 +801,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>40.440517</v>
@@ -1406,13 +821,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4">
         <v>40.434773999999997</v>
@@ -1426,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
         <v>40.421193000000002</v>
@@ -1446,13 +861,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>40.415709999999997</v>
@@ -1466,13 +881,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
         <v>40.401299000000002</v>
@@ -1486,13 +901,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2">
         <v>40.436368999999999</v>
@@ -1506,13 +921,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <v>40.440454000000003</v>
@@ -1526,13 +941,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>40.439739000000003</v>
@@ -1546,13 +961,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2">
         <v>40.438057000000001</v>
@@ -1566,13 +981,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>40.441819000000002</v>
@@ -1586,13 +1001,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>40.439259999999997</v>
@@ -1606,10 +1021,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
@@ -1621,151 +1036,109 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="2">
-        <v>20</v>
+      <c r="A21" s="4">
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E21" s="4">
-        <v>40.444467000000003</v>
+        <v>40.445686000000002</v>
       </c>
       <c r="F21" s="4">
-        <v>-79.948642000000007</v>
+        <v>-79.950389999999999</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
-        <v>40.445686000000002</v>
+        <v>40.446814000000003</v>
       </c>
       <c r="F22" s="4">
-        <v>-79.950389999999999</v>
+        <v>-79.950548999999995</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="2">
-        <v>22</v>
+      <c r="A23" s="4">
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E23" s="4">
-        <v>40.446814000000003</v>
+        <v>40.447839000000002</v>
       </c>
       <c r="F23" s="4">
-        <v>-79.950548999999995</v>
+        <v>-79.937092000000007</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="4">
-        <v>40.447839000000002</v>
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2">
+        <v>40.448188000000002</v>
       </c>
       <c r="F24" s="4">
-        <v>-79.937092000000007</v>
+        <v>-79.934377999999995</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2">
-        <v>40.448188000000002</v>
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4">
+        <v>40.448711000000003</v>
       </c>
       <c r="F25" s="4">
-        <v>-79.934377999999995</v>
+        <v>-79.932725000000005</v>
       </c>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="4">
-        <v>40.448711000000003</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-79.932725000000005</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="16">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
